--- a/zutnlp-text/doc/log/陈金新.xlsx
+++ b/zutnlp-text/doc/log/陈金新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Documents\Tencent Files\912050304\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{853B89F6-6241-4E9E-939B-82C2683420FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B8D73B3F-CCA6-4624-AE63-AFF0B882C9C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>日志报告</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>将hanlp分析出来的返回到页面上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.23</t>
+  </si>
+  <si>
+    <t>建立接口，传入数据库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立接口，让输入的文本进行分析后跑进数据库中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何将网页输入的文本传回编译器中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,7 +503,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" activeCellId="1" sqref="B9 D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,12 +516,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -617,7 +635,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/zutnlp-text/doc/log/陈金新.xlsx
+++ b/zutnlp-text/doc/log/陈金新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Documents\Tencent Files\912050304\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B8D73B3F-CCA6-4624-AE63-AFF0B882C9C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20793B6C-6346-4DA4-B17C-0C545A3E394C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>日志报告</t>
   </si>
@@ -140,6 +140,66 @@
   </si>
   <si>
     <t>如何将网页输入的文本传回编译器中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合模块，跑入数据库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建vue的环境配置，完成项目的部分搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描不到包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据写入到数据库，进一步学习vue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立相关接口，数据成功跑入数据库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法继承base类，继承就报错。后来发现jar有问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.24</t>
+  </si>
+  <si>
+    <t>2018.07.25</t>
+  </si>
+  <si>
+    <t>2018.07.26</t>
+  </si>
+  <si>
+    <t>2018.07.27</t>
+  </si>
+  <si>
+    <t>学习vue，开发web模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成模块的dao-service类，开始运行简单web的示例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法访问到url，仍然有依赖报错</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习vue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习建立demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面数据传不过来</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +220,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -168,12 +229,22 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,11 +290,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -516,12 +596,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -649,10 +729,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/zutnlp-text/doc/log/陈金新.xlsx
+++ b/zutnlp-text/doc/log/陈金新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Documents\Tencent Files\912050304\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20793B6C-6346-4DA4-B17C-0C545A3E394C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{107B13EF-9093-49C5-A5A1-21B5FD05E8DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>日志报告</t>
   </si>
@@ -91,15 +91,15 @@
   </si>
   <si>
     <t>学习hanlp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置hanlp环境并练习hanlp的一些分词实例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>导入的jar包出错但是仍然能运行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2018.07.21</t>
@@ -109,62 +109,62 @@
   </si>
   <si>
     <t>尝试建立接口和controller</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建立了相对简单的接口，StudentRepository' that could not be found.，换了编译器以后，程序能正常跑通</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>熟悉idea的相关操作，搭建基础的框架，hanlp的分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>经过语义分析后的list，return出来会乱码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>将hanlp分析出来的返回到页面上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2018.07.23</t>
   </si>
   <si>
     <t>建立接口，传入数据库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建立接口，让输入的文本进行分析后跑进数据库中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>如何将网页输入的文本传回编译器中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>整合模块，跑入数据库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>搭建vue的环境配置，完成项目的部分搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>扫描不到包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>将数据写入到数据库，进一步学习vue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建立相关接口，数据成功跑入数据库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法继承base类，继承就报错。后来发现jar有问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2018.07.24</t>
@@ -180,39 +180,332 @@
   </si>
   <si>
     <t>学习vue，开发web模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>完成模块的dao-service类，开始运行简单web的示例</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无法访问到url，仍然有依赖报错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>继续学习vue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>学习建立demo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>页面数据传不过来</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.28</t>
+  </si>
+  <si>
+    <t>2018.07.29</t>
+  </si>
+  <si>
+    <t>2018.07.30</t>
+  </si>
+  <si>
+    <t>2018.07.31</t>
+  </si>
+  <si>
+    <r>
+      <t>2018.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2018.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2018.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2018.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2018.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>学习vue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子组件和父组件无法传递，，emit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习页面数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够将前端输入的文件导入到后端中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入的时候，因为浏览器兼容性的问题，导致报错，返回文件为空，也找不到问题所在，后来换谷歌浏览器能正常运行了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文件改为文本框</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了web层，文本框无法响应</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块数据库出现问题，service和web无法都跑，依赖有问题，读入文件utf-8不兼容，需要转化为gtr才行，不然会乱码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改为文本框，实现将内容传入到后端text内</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改为输入的文本，进行传入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入的文本数据无法传入，报错显示为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>将页面的的数据传输到后台中，能够正常返回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,39 +564,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,12 +895,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -778,30 +1077,105 @@
       <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/zutnlp-text/doc/log/陈金新.xlsx
+++ b/zutnlp-text/doc/log/陈金新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Documents\Tencent Files\912050304\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{107B13EF-9093-49C5-A5A1-21B5FD05E8DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE62FC63-0A31-4ECE-85C0-F4C04D84DC50}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>日志报告</t>
   </si>
@@ -234,6 +234,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -272,6 +273,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -319,6 +321,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -366,6 +369,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,6 +417,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,6 +491,18 @@
   </si>
   <si>
     <t>将页面的的数据传输到后台中，能够正常返回</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了vue的跨域请求，axios和ajax，显示数据库的内容到网页上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本数据传输不了到后端，请求不到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输页面数据到后台</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -595,13 +612,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,7 +899,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,12 +912,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1132,7 +1149,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1146,25 +1163,34 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="C20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="B21" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>58</v>
       </c>
     </row>
